--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moriyama_yuto/ExcelColumnExtract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7EDBA3-CB83-8E41-AF91-0492A0F6F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E2A912-2108-F442-A16C-4D886E565378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="920" yWindow="780" windowWidth="29400" windowHeight="19120" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -27,18 +27,27 @@
     <x:t>Subject</x:t>
   </x:si>
   <x:si>
+    <x:t>task1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>task2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>task3</x:t>
+  </x:si>
+  <x:si>
     <x:t>R</x:t>
   </x:si>
   <x:si>
-    <x:t>task1</x:t>
+    <x:t>S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T</x:t>
   </x:si>
   <x:si>
     <x:t>EXP101</x:t>
   </x:si>
   <x:si>
-    <x:t>T</x:t>
-  </x:si>
-  <x:si>
     <x:t>EXP102</x:t>
   </x:si>
   <x:si>
@@ -94,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>EXP120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>task2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>task3</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -112,7 +112,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="2">
     <x:font>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -125,13 +125,6 @@
       <x:family val="3"/>
       <x:charset val="128"/>
     </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="MS Gothic"/>
-      <x:family val="2"/>
-      <x:charset val="128"/>
-    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -142,7 +135,8 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFD3D3D3"/>
+        <x:fgColor theme="0"/>
+        <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -161,7 +155,8 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -475,15 +470,14 @@
   <x:dimension ref="A1:J22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="J2" sqref="J2"/>
+      <x:selection activeCell="C8" sqref="C8"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="9.210625" defaultRowHeight="15"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="9.460625" defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.164062" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="23" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="22.664062" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="23.5" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="9" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10">
@@ -491,62 +485,62 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
       <x:c r="A3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>587.445</x:v>
       </x:c>
-      <x:c r="C3" s="2">
-        <x:v>589.3775</x:v>
-      </x:c>
-      <x:c r="D3" s="2">
+      <x:c r="C3" s="3">
+        <x:v>589.2445</x:v>
+      </x:c>
+      <x:c r="D3" s="3">
         <x:v>590.8435</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>579.9635</x:v>
       </x:c>
       <x:c r="F3" s="0">
-        <x:v>582.029</x:v>
+        <x:v>581.896</x:v>
       </x:c>
       <x:c r="G3" s="0">
         <x:v>583.429</x:v>
@@ -555,7 +549,7 @@
         <x:v>599.2255</x:v>
       </x:c>
       <x:c r="I3" s="0">
-        <x:v>602.391</x:v>
+        <x:v>602.258</x:v>
       </x:c>
       <x:c r="J3" s="0">
         <x:v>603.0575</x:v>
@@ -563,97 +557,124 @@
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0">
+        <x:v>527.5755</x:v>
+      </x:c>
+      <x:c r="C4" s="0">
+        <x:v>529.5755</x:v>
+      </x:c>
+      <x:c r="D4" s="0">
+        <x:v>530.8085</x:v>
+      </x:c>
+      <x:c r="E4" s="0">
+        <x:v>511.8465</x:v>
+      </x:c>
+      <x:c r="F4" s="0">
+        <x:v>485.453</x:v>
+      </x:c>
+      <x:c r="G4" s="0">
+        <x:v>514.546</x:v>
+      </x:c>
+      <x:c r="H4" s="0">
+        <x:v>527.959</x:v>
+      </x:c>
+      <x:c r="I4" s="0">
+        <x:v>529.6255</x:v>
+      </x:c>
+      <x:c r="J4" s="0">
+        <x:v>531.025</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10">
       <x:c r="A16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10">
       <x:c r="A18" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10">
       <x:c r="A19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10">
       <x:c r="A20" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10">
       <x:c r="A21" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10">
       <x:c r="A22" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -680,7 +701,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="11.460625" defaultRowHeight="15"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="11.710625" defaultRowHeight="15"/>
   <x:sheetData/>
   <x:phoneticPr fontId="1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
